--- a/Document/SWP391-AppDevProject_Evaluations-LOC.xlsx
+++ b/Document/SWP391-AppDevProject_Evaluations-LOC.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA86021F-A112-45B2-A2CB-835C37FFD66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC041B6-E337-47A0-87F7-4F9EF45F6A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignemnts-original" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId2"/>
-    <sheet name="Assignemnts-original (2)" sheetId="13" r:id="rId3"/>
-    <sheet name="Iteration-LOC" sheetId="10" r:id="rId4"/>
-    <sheet name="Final-LOC" sheetId="11" r:id="rId5"/>
+    <sheet name="Assignemnts-original (2)" sheetId="13" r:id="rId2"/>
+    <sheet name="Iteration-LOC" sheetId="10" r:id="rId3"/>
+    <sheet name="Final-LOC" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="69">
   <si>
     <t>SE05407</t>
   </si>
@@ -2065,8 +2064,8 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2180,11 +2179,11 @@
         <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="17">
         <f>IF(C9="Complex", 240, IF(C9="Medium",120,60))</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>15</v>
@@ -2207,7 +2206,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="17">
         <f>D9*IF(J9="High",100%,IF(J9="Medium",75%,50%))</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="M9" s="18" t="s">
         <v>21</v>
@@ -2215,7 +2214,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="17">
         <f>D10*IF(M9="High",100%,IF(M9="Medium",75%,50%))</f>
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
@@ -2226,14 +2225,14 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" ref="D10:D15" si="0">IF(C10="Complex", 240, IF(C10="Medium",120,60))</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>61</v>
@@ -2253,7 +2252,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="17">
         <f>D10*IF(J10="High",100%,IF(J10="Medium",75%,50%))</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>33</v>
@@ -2261,7 +2260,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="17">
         <f t="shared" ref="O10:O15" si="1">D11*IF(M10="High",100%,IF(M10="Medium",75%,50%))</f>
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
@@ -2272,14 +2271,14 @@
         <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>60</v>
@@ -2299,7 +2298,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="17">
         <f t="shared" ref="L11:L15" si="2">D11*IF(J11="High",100%,IF(J11="Medium",75%,50%))</f>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>33</v>
@@ -2307,7 +2306,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="17">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
@@ -2318,11 +2317,11 @@
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>15</v>
@@ -2345,7 +2344,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="17">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M12" s="18" t="s">
         <v>21</v>
@@ -2353,7 +2352,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="17">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
@@ -2364,14 +2363,14 @@
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>62</v>
@@ -2391,7 +2390,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="17">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M13" s="18" t="s">
         <v>21</v>
@@ -2419,46 +2418,21 @@
       <c r="O14" s="17"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="17">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="17">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O15" s="17"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="16"/>
@@ -2485,18 +2459,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3654DE19-0817-4538-9711-9710F896A88B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F850EFD-60D1-4285-9B01-435ABF355F2E}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
@@ -2954,7 +2916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6B4AC7-0488-9843-8026-941961BD8FF8}">
   <dimension ref="A1:N16"/>
   <sheetViews>
@@ -3030,9 +2992,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+      <c r="A11" t="e">
         <f>VLOOKUP(B11,'Assignemnts-original'!F:G,2,FALSE)</f>
-        <v>--</v>
+        <v>#N/A</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>14</v>
@@ -3141,7 +3103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565A92FD-D16B-594C-A233-DF4DB6AEF1C2}">
   <dimension ref="B1:O16"/>
   <sheetViews>
@@ -3201,9 +3163,9 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" t="str">
+      <c r="B11" t="e">
         <f>VLOOKUP(C11,'Assignemnts-original'!F:G,2,FALSE)</f>
-        <v>--</v>
+        <v>#N/A</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>14</v>
